--- a/median-pCO2.xlsx
+++ b/median-pCO2.xlsx
@@ -494,7 +494,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -515,13 +515,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>628.067332382311</v>
+        <v>855.574446764091</v>
       </c>
       <c r="C2" t="n">
-        <v>709.124231404958</v>
+        <v>918.120867469879</v>
       </c>
       <c r="D2" t="n">
-        <v>780.460530421217</v>
+        <v>962.612057416267</v>
       </c>
     </row>
     <row r="3">
@@ -529,13 +529,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>401.291080876558</v>
+        <v>515.680160948769</v>
       </c>
       <c r="C3" t="n">
-        <v>451.240485619838</v>
+        <v>556.738514468933</v>
       </c>
       <c r="D3" t="n">
-        <v>479.140803530291</v>
+        <v>585.573339726289</v>
       </c>
     </row>
     <row r="4">
@@ -543,13 +543,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>274.736208322166</v>
+        <v>361.791615024361</v>
       </c>
       <c r="C4" t="n">
-        <v>310.766415925971</v>
+        <v>388.73220141772</v>
       </c>
       <c r="D4" t="n">
-        <v>338.523303833235</v>
+        <v>414.413778020459</v>
       </c>
     </row>
     <row r="5">
@@ -557,13 +557,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>398.954554286706</v>
+        <v>543.72628340927</v>
       </c>
       <c r="C5" t="n">
-        <v>449.086343733078</v>
+        <v>576.658877717751</v>
       </c>
       <c r="D5" t="n">
-        <v>486.413789188883</v>
+        <v>607.038729909641</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="n">
-        <v>960.899529381928</v>
+        <v>1408.88458905707</v>
       </c>
       <c r="C6" t="n">
-        <v>1081.54707611541</v>
+        <v>1506.0888834935</v>
       </c>
       <c r="D6" t="n">
-        <v>1188.29140346966</v>
+        <v>1574.72397965468</v>
       </c>
     </row>
     <row r="7">
@@ -585,13 +585,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="n">
-        <v>651.998185152514</v>
+        <v>924.351763560195</v>
       </c>
       <c r="C7" t="n">
-        <v>733.497958296579</v>
+        <v>980.644084695939</v>
       </c>
       <c r="D7" t="n">
-        <v>792.407703651459</v>
+        <v>1033.49983559065</v>
       </c>
     </row>
     <row r="8">
@@ -599,13 +599,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="n">
-        <v>670.674191415329</v>
+        <v>952.60670688144</v>
       </c>
       <c r="C8" t="n">
-        <v>761.317502595135</v>
+        <v>1009.02466236688</v>
       </c>
       <c r="D8" t="n">
-        <v>826.29945025455</v>
+        <v>1058.79866933244</v>
       </c>
     </row>
     <row r="9">
@@ -613,13 +613,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="n">
-        <v>395.949382626693</v>
+        <v>521.678383567834</v>
       </c>
       <c r="C9" t="n">
-        <v>441.295799187103</v>
+        <v>553.941881415734</v>
       </c>
       <c r="D9" t="n">
-        <v>474.984355252368</v>
+        <v>581.797795071481</v>
       </c>
     </row>
     <row r="10">
@@ -627,13 +627,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="n">
-        <v>379.540426297455</v>
+        <v>474.856396362912</v>
       </c>
       <c r="C10" t="n">
-        <v>419.462614286774</v>
+        <v>500.228024526217</v>
       </c>
       <c r="D10" t="n">
-        <v>466.069571429749</v>
+        <v>528.176039728228</v>
       </c>
     </row>
     <row r="11">
@@ -641,13 +641,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="n">
-        <v>1013.21149965074</v>
+        <v>1247.99750222795</v>
       </c>
       <c r="C11" t="n">
-        <v>1148.67890142333</v>
+        <v>1332.22747037658</v>
       </c>
       <c r="D11" t="n">
-        <v>1254.54156821025</v>
+        <v>1395.8662166142</v>
       </c>
     </row>
     <row r="12">
@@ -655,13 +655,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="n">
-        <v>1334.9598933407</v>
+        <v>1622.4534097933</v>
       </c>
       <c r="C12" t="n">
-        <v>1492.85575696056</v>
+        <v>1730.39293150523</v>
       </c>
       <c r="D12" t="n">
-        <v>1622.4534097933</v>
+        <v>1803.21589244291</v>
       </c>
     </row>
     <row r="13">
@@ -669,13 +669,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="n">
-        <v>1260.95433336545</v>
+        <v>1581.6769720872</v>
       </c>
       <c r="C13" t="n">
-        <v>1428.25308620471</v>
+        <v>1687.93546551466</v>
       </c>
       <c r="D13" t="n">
-        <v>1558.09427585969</v>
+        <v>1770.87357019244</v>
       </c>
     </row>
     <row r="14">
@@ -683,13 +683,13 @@
         <v>16</v>
       </c>
       <c r="B14" t="n">
-        <v>436.75508899172</v>
+        <v>679.577670572745</v>
       </c>
       <c r="C14" t="n">
-        <v>491.349475115685</v>
+        <v>712.332840254836</v>
       </c>
       <c r="D14" t="n">
-        <v>532.693861218688</v>
+        <v>759.010521857265</v>
       </c>
     </row>
     <row r="15">
@@ -697,13 +697,13 @@
         <v>17</v>
       </c>
       <c r="B15" t="n">
-        <v>806.30977729732</v>
+        <v>1448.56410249848</v>
       </c>
       <c r="C15" t="n">
-        <v>912.892978881288</v>
+        <v>1548.52655052934</v>
       </c>
       <c r="D15" t="n">
-        <v>998.191624144196</v>
+        <v>1619.00822509426</v>
       </c>
     </row>
     <row r="16">
@@ -739,13 +739,13 @@
         <v>20</v>
       </c>
       <c r="B18" t="n">
-        <v>309.041939813938</v>
+        <v>321.392947512706</v>
       </c>
       <c r="C18" t="n">
-        <v>342.484059046188</v>
+        <v>343.959237381274</v>
       </c>
       <c r="D18" t="n">
-        <v>372.646603776042</v>
+        <v>360.035654375383</v>
       </c>
     </row>
     <row r="19">
@@ -753,13 +753,13 @@
         <v>21</v>
       </c>
       <c r="B19" t="n">
-        <v>303.711942081359</v>
+        <v>315.85390642902</v>
       </c>
       <c r="C19" t="n">
-        <v>336.105681266811</v>
+        <v>338.430594194825</v>
       </c>
       <c r="D19" t="n">
-        <v>366.770933130469</v>
+        <v>354.362649681142</v>
       </c>
     </row>
     <row r="20">
@@ -767,13 +767,13 @@
         <v>22</v>
       </c>
       <c r="B20" t="n">
-        <v>1226.3801615397</v>
+        <v>1297.17619487931</v>
       </c>
       <c r="C20" t="n">
         <v>1383.53966664869</v>
       </c>
       <c r="D20" t="n">
-        <v>1509.64582562714</v>
+        <v>1451.00146300342</v>
       </c>
     </row>
     <row r="21">
@@ -781,13 +781,13 @@
         <v>23</v>
       </c>
       <c r="B21" t="n">
-        <v>1323.70535690716</v>
+        <v>1170.88728963912</v>
       </c>
       <c r="C21" t="n">
-        <v>1489.16852652056</v>
+        <v>1321.1898698017</v>
       </c>
       <c r="D21" t="n">
-        <v>1615.64016985895</v>
+        <v>1441.29803978367</v>
       </c>
     </row>
     <row r="22">
@@ -963,13 +963,13 @@
         <v>36</v>
       </c>
       <c r="B34" t="n">
-        <v>556.246132823485</v>
+        <v>583.208547345032</v>
       </c>
       <c r="C34" t="n">
-        <v>624.872520932603</v>
+        <v>621.041042595736</v>
       </c>
       <c r="D34" t="n">
-        <v>673.094732106208</v>
+        <v>650.381381382686</v>
       </c>
     </row>
     <row r="35">
@@ -977,13 +977,13 @@
         <v>37</v>
       </c>
       <c r="B35" t="n">
-        <v>1152.52425051846</v>
+        <v>1221.92999233131</v>
       </c>
       <c r="C35" t="n">
         <v>1297.86122684428</v>
       </c>
       <c r="D35" t="n">
-        <v>1415.84861110285</v>
+        <v>1365.08561569179</v>
       </c>
     </row>
     <row r="36">
@@ -991,13 +991,13 @@
         <v>38</v>
       </c>
       <c r="B36" t="n">
-        <v>940.16740616459</v>
+        <v>985.419926207523</v>
       </c>
       <c r="C36" t="n">
-        <v>1052.93570902912</v>
+        <v>1050.16545202867</v>
       </c>
       <c r="D36" t="n">
-        <v>1146.50672769496</v>
+        <v>1097.27343194541</v>
       </c>
     </row>
     <row r="37">
@@ -1005,13 +1005,13 @@
         <v>39</v>
       </c>
       <c r="B37" t="n">
-        <v>587.561880019432</v>
+        <v>619.665269838043</v>
       </c>
       <c r="C37" t="n">
-        <v>661.900171090585</v>
+        <v>661.859946979227</v>
       </c>
       <c r="D37" t="n">
-        <v>722.072913917002</v>
+        <v>697.123428567798</v>
       </c>
     </row>
     <row r="38">
@@ -1019,13 +1019,13 @@
         <v>40</v>
       </c>
       <c r="B38" t="n">
-        <v>1110.98085888469</v>
+        <v>1161.09156808487</v>
       </c>
       <c r="C38" t="n">
-        <v>1242.83425244925</v>
+        <v>1244.11372673752</v>
       </c>
       <c r="D38" t="n">
-        <v>1350.50222252301</v>
+        <v>1300.50284648366</v>
       </c>
     </row>
     <row r="39">
@@ -1033,13 +1033,13 @@
         <v>41</v>
       </c>
       <c r="B39" t="n">
-        <v>1137.37986488579</v>
+        <v>1186.98499674063</v>
       </c>
       <c r="C39" t="n">
-        <v>1277.256955842</v>
+        <v>1275.78392365952</v>
       </c>
       <c r="D39" t="n">
-        <v>1394.79956074463</v>
+        <v>1341.88369017559</v>
       </c>
     </row>
     <row r="40">
@@ -1047,13 +1047,13 @@
         <v>42</v>
       </c>
       <c r="B40" t="n">
-        <v>946.601081822643</v>
+        <v>997.730398621397</v>
       </c>
       <c r="C40" t="n">
         <v>1063.98993712135</v>
       </c>
       <c r="D40" t="n">
-        <v>1161.76300700818</v>
+        <v>1109.03318555062</v>
       </c>
     </row>
     <row r="41">
@@ -1061,13 +1061,13 @@
         <v>43</v>
       </c>
       <c r="B41" t="n">
-        <v>1027.25003678164</v>
+        <v>1079.41356827909</v>
       </c>
       <c r="C41" t="n">
-        <v>1156.49874499103</v>
+        <v>1154.71239290728</v>
       </c>
       <c r="D41" t="n">
-        <v>1264.7938520681</v>
+        <v>1211.68433115932</v>
       </c>
     </row>
     <row r="42">
@@ -1075,13 +1075,13 @@
         <v>44</v>
       </c>
       <c r="B42" t="n">
-        <v>1020.41207747669</v>
+        <v>1082.25784116174</v>
       </c>
       <c r="C42" t="n">
-        <v>1156.79360017421</v>
+        <v>1148.86060053171</v>
       </c>
       <c r="D42" t="n">
-        <v>1263.43741096265</v>
+        <v>1215.57164618447</v>
       </c>
     </row>
     <row r="43">
@@ -1089,13 +1089,13 @@
         <v>45</v>
       </c>
       <c r="B43" t="n">
-        <v>314.629814864788</v>
+        <v>447.793918422492</v>
       </c>
       <c r="C43" t="n">
-        <v>346.931656837103</v>
+        <v>470.658808507332</v>
       </c>
       <c r="D43" t="n">
-        <v>383.080860246563</v>
+        <v>497.325606564585</v>
       </c>
     </row>
     <row r="44">
@@ -1103,13 +1103,13 @@
         <v>46</v>
       </c>
       <c r="B44" t="n">
-        <v>634.288685154278</v>
+        <v>923.257541066006</v>
       </c>
       <c r="C44" t="n">
-        <v>713.574770798563</v>
+        <v>985.980136221658</v>
       </c>
       <c r="D44" t="n">
-        <v>772.403092216152</v>
+        <v>1035.70175195984</v>
       </c>
     </row>
     <row r="45">
@@ -1117,13 +1117,13 @@
         <v>47</v>
       </c>
       <c r="B45" t="n">
-        <v>843.91481945115</v>
+        <v>1422.99538012465</v>
       </c>
       <c r="C45" t="n">
-        <v>953.211237388267</v>
+        <v>1514.29775225876</v>
       </c>
       <c r="D45" t="n">
-        <v>1044.08210476659</v>
+        <v>1589.30448633202</v>
       </c>
     </row>
     <row r="46">
@@ -1131,13 +1131,13 @@
         <v>48</v>
       </c>
       <c r="B46" t="n">
-        <v>839.816647038742</v>
+        <v>1416.61401839532</v>
       </c>
       <c r="C46" t="n">
-        <v>948.870149435488</v>
+        <v>1507.40137979544</v>
       </c>
       <c r="D46" t="n">
-        <v>1039.10352065843</v>
+        <v>1581.66203695369</v>
       </c>
     </row>
     <row r="47">
@@ -1145,13 +1145,13 @@
         <v>49</v>
       </c>
       <c r="B47" t="n">
-        <v>476.533418833756</v>
+        <v>598.976729326815</v>
       </c>
       <c r="C47" t="n">
-        <v>527.984418263836</v>
+        <v>634.536071869242</v>
       </c>
       <c r="D47" t="n">
-        <v>576.565203202039</v>
+        <v>671.086304427833</v>
       </c>
     </row>
     <row r="48">
@@ -1159,13 +1159,13 @@
         <v>50</v>
       </c>
       <c r="B48" t="n">
-        <v>413.256818229992</v>
+        <v>502.667778191019</v>
       </c>
       <c r="C48" t="n">
-        <v>465.691291967169</v>
+        <v>538.222290018178</v>
       </c>
       <c r="D48" t="n">
-        <v>508.026863964184</v>
+        <v>560.482755224435</v>
       </c>
     </row>
   </sheetData>

--- a/median-pCO2.xlsx
+++ b/median-pCO2.xlsx
@@ -515,13 +515,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>855.574446764091</v>
+        <v>893.959796954314</v>
       </c>
       <c r="C2" t="n">
-        <v>918.120867469879</v>
+        <v>914.327527352297</v>
       </c>
       <c r="D2" t="n">
-        <v>962.612057416267</v>
+        <v>932.48099533437</v>
       </c>
     </row>
     <row r="3">
@@ -529,13 +529,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>515.680160948769</v>
+        <v>542.403167060327</v>
       </c>
       <c r="C3" t="n">
-        <v>556.738514468933</v>
+        <v>555.341696303482</v>
       </c>
       <c r="D3" t="n">
-        <v>585.573339726289</v>
+        <v>565.733711191733</v>
       </c>
     </row>
     <row r="4">
@@ -543,13 +543,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>361.791615024361</v>
+        <v>380.323851322205</v>
       </c>
       <c r="C4" t="n">
-        <v>388.73220141772</v>
+        <v>388.551883228406</v>
       </c>
       <c r="D4" t="n">
-        <v>414.413778020459</v>
+        <v>396.438908460383</v>
       </c>
     </row>
     <row r="5">
@@ -557,13 +557,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>543.72628340927</v>
+        <v>562.786925261143</v>
       </c>
       <c r="C5" t="n">
-        <v>576.658877717751</v>
+        <v>575.173533368636</v>
       </c>
       <c r="D5" t="n">
-        <v>607.038729909641</v>
+        <v>587.235688442397</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="n">
-        <v>1408.88458905707</v>
+        <v>1463.13440410129</v>
       </c>
       <c r="C6" t="n">
-        <v>1506.0888834935</v>
+        <v>1496.51792386254</v>
       </c>
       <c r="D6" t="n">
-        <v>1574.72397965468</v>
+        <v>1524.10044018463</v>
       </c>
     </row>
     <row r="7">
@@ -585,13 +585,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="n">
-        <v>924.351763560195</v>
+        <v>959.229275578443</v>
       </c>
       <c r="C7" t="n">
-        <v>980.644084695939</v>
+        <v>978.439039936561</v>
       </c>
       <c r="D7" t="n">
-        <v>1033.49983559065</v>
+        <v>999.222130745871</v>
       </c>
     </row>
     <row r="8">
@@ -599,13 +599,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="n">
-        <v>952.60670688144</v>
+        <v>982.59692269045</v>
       </c>
       <c r="C8" t="n">
-        <v>1009.02466236688</v>
+        <v>1005.76886292809</v>
       </c>
       <c r="D8" t="n">
-        <v>1058.79866933244</v>
+        <v>1027.27763959983</v>
       </c>
     </row>
     <row r="9">
@@ -613,13 +613,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="n">
-        <v>521.678383567834</v>
+        <v>542.64043005521</v>
       </c>
       <c r="C9" t="n">
-        <v>553.941881415734</v>
+        <v>553.818705434482</v>
       </c>
       <c r="D9" t="n">
-        <v>581.797795071481</v>
+        <v>565.890718876197</v>
       </c>
     </row>
     <row r="10">
@@ -627,13 +627,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="n">
-        <v>474.856396362912</v>
+        <v>490.372070171191</v>
       </c>
       <c r="C10" t="n">
-        <v>500.228024526217</v>
+        <v>501.488853053238</v>
       </c>
       <c r="D10" t="n">
-        <v>528.176039728228</v>
+        <v>511.245415130127</v>
       </c>
     </row>
     <row r="11">
@@ -641,13 +641,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="n">
-        <v>1247.99750222795</v>
+        <v>1300.50202332454</v>
       </c>
       <c r="C11" t="n">
-        <v>1332.22747037658</v>
+        <v>1330.58001923712</v>
       </c>
       <c r="D11" t="n">
-        <v>1395.8662166142</v>
+        <v>1356.86574691846</v>
       </c>
     </row>
     <row r="12">
@@ -655,13 +655,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="n">
-        <v>1622.4534097933</v>
+        <v>1688.66197001574</v>
       </c>
       <c r="C12" t="n">
-        <v>1730.39293150523</v>
+        <v>1721.9183512302</v>
       </c>
       <c r="D12" t="n">
-        <v>1803.21589244291</v>
+        <v>1761.11285553992</v>
       </c>
     </row>
     <row r="13">
@@ -669,13 +669,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="n">
-        <v>1581.6769720872</v>
+        <v>1652.7041145979</v>
       </c>
       <c r="C13" t="n">
-        <v>1687.93546551466</v>
+        <v>1687.12987953095</v>
       </c>
       <c r="D13" t="n">
-        <v>1770.87357019244</v>
+        <v>1722.7723375871</v>
       </c>
     </row>
     <row r="14">
@@ -683,13 +683,13 @@
         <v>16</v>
       </c>
       <c r="B14" t="n">
-        <v>679.577670572745</v>
+        <v>703.930195486456</v>
       </c>
       <c r="C14" t="n">
-        <v>712.332840254836</v>
+        <v>718.142013370853</v>
       </c>
       <c r="D14" t="n">
-        <v>759.010521857265</v>
+        <v>734.253716760245</v>
       </c>
     </row>
     <row r="15">
@@ -697,13 +697,13 @@
         <v>17</v>
       </c>
       <c r="B15" t="n">
-        <v>1448.56410249848</v>
+        <v>1521.19605642188</v>
       </c>
       <c r="C15" t="n">
-        <v>1548.52655052934</v>
+        <v>1552.72205407014</v>
       </c>
       <c r="D15" t="n">
-        <v>1619.00822509426</v>
+        <v>1583.67729867611</v>
       </c>
     </row>
     <row r="16">
@@ -717,7 +717,7 @@
         <v>375.767442379454</v>
       </c>
       <c r="D16" t="n">
-        <v>415.794707339818</v>
+        <v>409.102108546611</v>
       </c>
     </row>
     <row r="17">
@@ -731,7 +731,7 @@
         <v>376.430300982676</v>
       </c>
       <c r="D17" t="n">
-        <v>412.497975171781</v>
+        <v>408.579504967266</v>
       </c>
     </row>
     <row r="18">
@@ -739,13 +739,13 @@
         <v>20</v>
       </c>
       <c r="B18" t="n">
-        <v>321.392947512706</v>
+        <v>335.548973561728</v>
       </c>
       <c r="C18" t="n">
-        <v>343.959237381274</v>
+        <v>343.050697749874</v>
       </c>
       <c r="D18" t="n">
-        <v>360.035654375383</v>
+        <v>349.807727657616</v>
       </c>
     </row>
     <row r="19">
@@ -753,13 +753,13 @@
         <v>21</v>
       </c>
       <c r="B19" t="n">
-        <v>315.85390642902</v>
+        <v>330.033598509987</v>
       </c>
       <c r="C19" t="n">
-        <v>338.430594194825</v>
+        <v>337.300559275273</v>
       </c>
       <c r="D19" t="n">
-        <v>354.362649681142</v>
+        <v>343.957866129146</v>
       </c>
     </row>
     <row r="20">
@@ -767,13 +767,13 @@
         <v>22</v>
       </c>
       <c r="B20" t="n">
-        <v>1297.17619487931</v>
+        <v>1351.62385687935</v>
       </c>
       <c r="C20" t="n">
-        <v>1383.53966664869</v>
+        <v>1381.34132184368</v>
       </c>
       <c r="D20" t="n">
-        <v>1451.00146300342</v>
+        <v>1406.47388081024</v>
       </c>
     </row>
     <row r="21">
@@ -781,7 +781,7 @@
         <v>23</v>
       </c>
       <c r="B21" t="n">
-        <v>1170.88728963912</v>
+        <v>1172.94407079287</v>
       </c>
       <c r="C21" t="n">
         <v>1321.1898698017</v>
@@ -801,7 +801,7 @@
         <v>1304.37950189452</v>
       </c>
       <c r="D22" t="n">
-        <v>1416.94480963729</v>
+        <v>1403.57875827806</v>
       </c>
     </row>
     <row r="23">
@@ -815,7 +815,7 @@
         <v>1517.73216247984</v>
       </c>
       <c r="D23" t="n">
-        <v>1645.03266285307</v>
+        <v>1639.0916630286</v>
       </c>
     </row>
     <row r="24">
@@ -829,7 +829,7 @@
         <v>1510.20737193638</v>
       </c>
       <c r="D24" t="n">
-        <v>1649.31383907851</v>
+        <v>1609.69584176948</v>
       </c>
     </row>
     <row r="25">
@@ -843,7 +843,7 @@
         <v>1926.1966854862</v>
       </c>
       <c r="D25" t="n">
-        <v>2094.16641480464</v>
+        <v>2074.4287686286</v>
       </c>
     </row>
     <row r="26">
@@ -851,7 +851,7 @@
         <v>28</v>
       </c>
       <c r="B26" t="n">
-        <v>1288.47635530723</v>
+        <v>1289.06757792852</v>
       </c>
       <c r="C26" t="n">
         <v>1452.67045481261</v>
@@ -871,7 +871,7 @@
         <v>1255.73677650127</v>
       </c>
       <c r="D27" t="n">
-        <v>1360.01713434437</v>
+        <v>1356.28077656945</v>
       </c>
     </row>
     <row r="28">
@@ -885,7 +885,7 @@
         <v>2593.44156538955</v>
       </c>
       <c r="D28" t="n">
-        <v>2836.94520460637</v>
+        <v>2775.71596758281</v>
       </c>
     </row>
     <row r="29">
@@ -899,7 +899,7 @@
         <v>2578.15196797776</v>
       </c>
       <c r="D29" t="n">
-        <v>2817.20682198173</v>
+        <v>2762.8788278928</v>
       </c>
     </row>
     <row r="30">
@@ -913,7 +913,7 @@
         <v>2234.13214151111</v>
       </c>
       <c r="D30" t="n">
-        <v>2426.41932115152</v>
+        <v>2410.78076077037</v>
       </c>
     </row>
     <row r="31">
@@ -927,7 +927,7 @@
         <v>2168.46180177871</v>
       </c>
       <c r="D31" t="n">
-        <v>2365.65853374487</v>
+        <v>2326.64847359856</v>
       </c>
     </row>
     <row r="32">
@@ -941,7 +941,7 @@
         <v>510.123036698837</v>
       </c>
       <c r="D32" t="n">
-        <v>556.497858216913</v>
+        <v>544.899767759808</v>
       </c>
     </row>
     <row r="33">
@@ -955,7 +955,7 @@
         <v>546.820047244951</v>
       </c>
       <c r="D33" t="n">
-        <v>592.529747019108</v>
+        <v>587.421578646044</v>
       </c>
     </row>
     <row r="34">
@@ -963,13 +963,13 @@
         <v>36</v>
       </c>
       <c r="B34" t="n">
-        <v>583.208547345032</v>
+        <v>606.460724426436</v>
       </c>
       <c r="C34" t="n">
-        <v>621.041042595736</v>
+        <v>619.634988584914</v>
       </c>
       <c r="D34" t="n">
-        <v>650.381381382686</v>
+        <v>632.870814245958</v>
       </c>
     </row>
     <row r="35">
@@ -977,13 +977,13 @@
         <v>37</v>
       </c>
       <c r="B35" t="n">
-        <v>1221.92999233131</v>
+        <v>1270.86361964273</v>
       </c>
       <c r="C35" t="n">
-        <v>1297.86122684428</v>
+        <v>1297.18185671345</v>
       </c>
       <c r="D35" t="n">
-        <v>1365.08561569179</v>
+        <v>1326.65740952909</v>
       </c>
     </row>
     <row r="36">
@@ -991,13 +991,13 @@
         <v>38</v>
       </c>
       <c r="B36" t="n">
-        <v>985.419926207523</v>
+        <v>1025.27803543113</v>
       </c>
       <c r="C36" t="n">
-        <v>1050.16545202867</v>
+        <v>1049.2813938822</v>
       </c>
       <c r="D36" t="n">
-        <v>1097.27343194541</v>
+        <v>1069.61263844682</v>
       </c>
     </row>
     <row r="37">
@@ -1005,13 +1005,13 @@
         <v>39</v>
       </c>
       <c r="B37" t="n">
-        <v>619.665269838043</v>
+        <v>646.496802459432</v>
       </c>
       <c r="C37" t="n">
-        <v>661.859946979227</v>
+        <v>660.989565224419</v>
       </c>
       <c r="D37" t="n">
-        <v>697.123428567798</v>
+        <v>674.264994461587</v>
       </c>
     </row>
     <row r="38">
@@ -1019,13 +1019,13 @@
         <v>40</v>
       </c>
       <c r="B38" t="n">
-        <v>1161.09156808487</v>
+        <v>1211.00362349335</v>
       </c>
       <c r="C38" t="n">
-        <v>1244.11372673752</v>
+        <v>1237.9607592873</v>
       </c>
       <c r="D38" t="n">
-        <v>1300.50284648366</v>
+        <v>1265.15888985961</v>
       </c>
     </row>
     <row r="39">
@@ -1033,13 +1033,13 @@
         <v>41</v>
       </c>
       <c r="B39" t="n">
-        <v>1186.98499674063</v>
+        <v>1243.52730188362</v>
       </c>
       <c r="C39" t="n">
-        <v>1275.78392365952</v>
+        <v>1272.54989220209</v>
       </c>
       <c r="D39" t="n">
-        <v>1341.88369017559</v>
+        <v>1298.39582534197</v>
       </c>
     </row>
     <row r="40">
@@ -1047,13 +1047,13 @@
         <v>42</v>
       </c>
       <c r="B40" t="n">
-        <v>997.730398621397</v>
+        <v>1037.0011696789</v>
       </c>
       <c r="C40" t="n">
-        <v>1063.98993712135</v>
+        <v>1059.56321520753</v>
       </c>
       <c r="D40" t="n">
-        <v>1109.03318555062</v>
+        <v>1081.03664651992</v>
       </c>
     </row>
     <row r="41">
@@ -1061,13 +1061,13 @@
         <v>43</v>
       </c>
       <c r="B41" t="n">
-        <v>1079.41356827909</v>
+        <v>1126.37189079231</v>
       </c>
       <c r="C41" t="n">
-        <v>1154.71239290728</v>
+        <v>1152.80951733676</v>
       </c>
       <c r="D41" t="n">
-        <v>1211.68433115932</v>
+        <v>1174.06105980764</v>
       </c>
     </row>
     <row r="42">
@@ -1075,13 +1075,13 @@
         <v>44</v>
       </c>
       <c r="B42" t="n">
-        <v>1082.25784116174</v>
+        <v>1127.59882107495</v>
       </c>
       <c r="C42" t="n">
-        <v>1148.86060053171</v>
+        <v>1152.3254625559</v>
       </c>
       <c r="D42" t="n">
-        <v>1215.57164618447</v>
+        <v>1175.07133448128</v>
       </c>
     </row>
     <row r="43">
@@ -1089,13 +1089,13 @@
         <v>45</v>
       </c>
       <c r="B43" t="n">
-        <v>447.793918422492</v>
+        <v>461.400243767956</v>
       </c>
       <c r="C43" t="n">
-        <v>470.658808507332</v>
+        <v>471.26786559647</v>
       </c>
       <c r="D43" t="n">
-        <v>497.325606564585</v>
+        <v>481.054325227635</v>
       </c>
     </row>
     <row r="44">
@@ -1103,13 +1103,13 @@
         <v>46</v>
       </c>
       <c r="B44" t="n">
-        <v>923.257541066006</v>
+        <v>961.747245851213</v>
       </c>
       <c r="C44" t="n">
-        <v>985.980136221658</v>
+        <v>984.610083240413</v>
       </c>
       <c r="D44" t="n">
-        <v>1035.70175195984</v>
+        <v>1003.45417026655</v>
       </c>
     </row>
     <row r="45">
@@ -1117,13 +1117,13 @@
         <v>47</v>
       </c>
       <c r="B45" t="n">
-        <v>1422.99538012465</v>
+        <v>1478.52813454046</v>
       </c>
       <c r="C45" t="n">
         <v>1514.29775225876</v>
       </c>
       <c r="D45" t="n">
-        <v>1589.30448633202</v>
+        <v>1543.82123305468</v>
       </c>
     </row>
     <row r="46">
@@ -1131,13 +1131,13 @@
         <v>48</v>
       </c>
       <c r="B46" t="n">
-        <v>1416.61401839532</v>
+        <v>1472.05652025082</v>
       </c>
       <c r="C46" t="n">
-        <v>1507.40137979544</v>
+        <v>1507.10525267037</v>
       </c>
       <c r="D46" t="n">
-        <v>1581.66203695369</v>
+        <v>1536.32421387553</v>
       </c>
     </row>
     <row r="47">
@@ -1145,13 +1145,13 @@
         <v>49</v>
       </c>
       <c r="B47" t="n">
-        <v>598.976729326815</v>
+        <v>620.199299169799</v>
       </c>
       <c r="C47" t="n">
-        <v>634.536071869242</v>
+        <v>634.104191653497</v>
       </c>
       <c r="D47" t="n">
-        <v>671.086304427833</v>
+        <v>647.11476624933</v>
       </c>
     </row>
     <row r="48">
@@ -1159,13 +1159,13 @@
         <v>50</v>
       </c>
       <c r="B48" t="n">
-        <v>502.667778191019</v>
+        <v>523.824023356324</v>
       </c>
       <c r="C48" t="n">
-        <v>538.222290018178</v>
+        <v>535.616089990898</v>
       </c>
       <c r="D48" t="n">
-        <v>560.482755224435</v>
+        <v>546.16131553897</v>
       </c>
     </row>
   </sheetData>

--- a/median-pCO2.xlsx
+++ b/median-pCO2.xlsx
@@ -14,18 +14,24 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
-    <t xml:space="preserve">sample_name</t>
+    <t xml:space="preserve">Sample</t>
   </si>
   <si>
     <t xml:space="preserve">lwr_ci</t>
   </si>
   <si>
-    <t xml:space="preserve">median_pCO2</t>
+    <t xml:space="preserve">mean_pCO2</t>
   </si>
   <si>
     <t xml:space="preserve">upr_ci</t>
   </si>
   <si>
+    <t xml:space="preserve">BG12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BG15</t>
+  </si>
+  <si>
     <t xml:space="preserve">BG2</t>
   </si>
   <si>
@@ -41,10 +47,67 @@
     <t xml:space="preserve">BG7</t>
   </si>
   <si>
-    <t xml:space="preserve">BG12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BG15</t>
+    <t xml:space="preserve">BS2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BS4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DYL EMY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DYL RZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DYL X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DYL Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DYL Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JY2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LL2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LL3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LL4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LL5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LL6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LL9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MCH-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MCH-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MCH-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NWP1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OLP 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PY1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PY2</t>
   </si>
   <si>
     <t xml:space="preserve">SMB-2</t>
@@ -53,118 +116,55 @@
     <t xml:space="preserve">SMB-4B</t>
   </si>
   <si>
-    <t xml:space="preserve">MCH-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MCH-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MCH-5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NWP1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OLP 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BS2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BS4</t>
+    <t xml:space="preserve">TD10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TD11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TD12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TD13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TD16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TD17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TD18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TD19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TD23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TD3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TD5</t>
   </si>
   <si>
     <t xml:space="preserve">TD5-1</t>
   </si>
   <si>
-    <t xml:space="preserve">TD5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TD3</t>
-  </si>
-  <si>
     <t xml:space="preserve">TD7</t>
   </si>
   <si>
     <t xml:space="preserve">TD9</t>
   </si>
   <si>
-    <t xml:space="preserve">TD23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TD10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TD11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TD12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TD13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TD16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TD17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TD18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TD19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LL9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DYL EMY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DYL RZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DYL Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DYL X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DYL Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LL2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LL3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LL4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LL5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LL6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PY2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PY1</t>
+    <t xml:space="preserve">WP1</t>
   </si>
   <si>
     <t xml:space="preserve">WP2</t>
   </si>
   <si>
     <t xml:space="preserve">WP2a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JY2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WP1</t>
   </si>
 </sst>
 </file>
@@ -515,13 +515,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>893.959796954314</v>
+        <v>418.654330938922</v>
       </c>
       <c r="C2" t="n">
-        <v>914.327527352297</v>
+        <v>978.439039936561</v>
       </c>
       <c r="D2" t="n">
-        <v>932.48099533437</v>
+        <v>1965.93572038396</v>
       </c>
     </row>
     <row r="3">
@@ -529,13 +529,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>542.403167060327</v>
+        <v>433.328583997645</v>
       </c>
       <c r="C3" t="n">
-        <v>555.341696303482</v>
+        <v>1005.76886292809</v>
       </c>
       <c r="D3" t="n">
-        <v>565.733711191733</v>
+        <v>1990.94409467863</v>
       </c>
     </row>
     <row r="4">
@@ -543,13 +543,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>380.323851322205</v>
+        <v>399.93298639518</v>
       </c>
       <c r="C4" t="n">
-        <v>388.551883228406</v>
+        <v>914.327527352297</v>
       </c>
       <c r="D4" t="n">
-        <v>396.438908460383</v>
+        <v>1743.84684599406</v>
       </c>
     </row>
     <row r="5">
@@ -557,13 +557,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>562.786925261143</v>
+        <v>241.574177851094</v>
       </c>
       <c r="C5" t="n">
-        <v>575.173533368636</v>
+        <v>555.341696303482</v>
       </c>
       <c r="D5" t="n">
-        <v>587.235688442397</v>
+        <v>1054.03882998917</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="n">
-        <v>1463.13440410129</v>
+        <v>161.785270430932</v>
       </c>
       <c r="C6" t="n">
-        <v>1496.51792386254</v>
+        <v>388.551883228406</v>
       </c>
       <c r="D6" t="n">
-        <v>1524.10044018463</v>
+        <v>788.415755997504</v>
       </c>
     </row>
     <row r="7">
@@ -585,13 +585,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="n">
-        <v>959.229275578443</v>
+        <v>243.766570654361</v>
       </c>
       <c r="C7" t="n">
-        <v>978.439039936561</v>
+        <v>575.173533368636</v>
       </c>
       <c r="D7" t="n">
-        <v>999.222130745871</v>
+        <v>1153.70440069318</v>
       </c>
     </row>
     <row r="8">
@@ -599,13 +599,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="n">
-        <v>982.59692269045</v>
+        <v>638.839645586087</v>
       </c>
       <c r="C8" t="n">
-        <v>1005.76886292809</v>
+        <v>1496.51792386254</v>
       </c>
       <c r="D8" t="n">
-        <v>1027.27763959983</v>
+        <v>3039.39573066251</v>
       </c>
     </row>
     <row r="9">
@@ -613,13 +613,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="n">
-        <v>542.64043005521</v>
+        <v>177.626658639482</v>
       </c>
       <c r="C9" t="n">
-        <v>553.818705434482</v>
+        <v>375.767442379454</v>
       </c>
       <c r="D9" t="n">
-        <v>565.890718876197</v>
+        <v>647.677126566565</v>
       </c>
     </row>
     <row r="10">
@@ -627,13 +627,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="n">
-        <v>490.372070171191</v>
+        <v>177.146209571236</v>
       </c>
       <c r="C10" t="n">
-        <v>501.488853053238</v>
+        <v>376.430300982676</v>
       </c>
       <c r="D10" t="n">
-        <v>511.245415130127</v>
+        <v>641.759403647139</v>
       </c>
     </row>
     <row r="11">
@@ -641,13 +641,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="n">
-        <v>1300.50202332454</v>
+        <v>255.804836224378</v>
       </c>
       <c r="C11" t="n">
-        <v>1330.58001923712</v>
+        <v>546.820047244951</v>
       </c>
       <c r="D11" t="n">
-        <v>1356.86574691846</v>
+        <v>909.252326678038</v>
       </c>
     </row>
     <row r="12">
@@ -655,13 +655,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="n">
-        <v>1688.66197001574</v>
+        <v>285.212131999635</v>
       </c>
       <c r="C12" t="n">
-        <v>1721.9183512302</v>
+        <v>619.634988584914</v>
       </c>
       <c r="D12" t="n">
-        <v>1761.11285553992</v>
+        <v>1067.77783770637</v>
       </c>
     </row>
     <row r="13">
@@ -669,13 +669,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="n">
-        <v>1652.7041145979</v>
+        <v>489.704486692204</v>
       </c>
       <c r="C13" t="n">
-        <v>1687.12987953095</v>
+        <v>1049.2813938822</v>
       </c>
       <c r="D13" t="n">
-        <v>1722.7723375871</v>
+        <v>1764.68007077721</v>
       </c>
     </row>
     <row r="14">
@@ -683,13 +683,13 @@
         <v>16</v>
       </c>
       <c r="B14" t="n">
-        <v>703.930195486456</v>
+        <v>306.020730164355</v>
       </c>
       <c r="C14" t="n">
-        <v>718.142013370853</v>
+        <v>660.989565224419</v>
       </c>
       <c r="D14" t="n">
-        <v>734.253716760245</v>
+        <v>1124.39770310332</v>
       </c>
     </row>
     <row r="15">
@@ -697,13 +697,13 @@
         <v>17</v>
       </c>
       <c r="B15" t="n">
-        <v>1521.19605642188</v>
+        <v>610.034757176734</v>
       </c>
       <c r="C15" t="n">
-        <v>1552.72205407014</v>
+        <v>1297.18185671345</v>
       </c>
       <c r="D15" t="n">
-        <v>1583.67729867611</v>
+        <v>2158.70528520742</v>
       </c>
     </row>
     <row r="16">
@@ -711,13 +711,13 @@
         <v>18</v>
       </c>
       <c r="B16" t="n">
-        <v>340.918423788842</v>
+        <v>287.782548587827</v>
       </c>
       <c r="C16" t="n">
-        <v>375.767442379454</v>
+        <v>634.104191653497</v>
       </c>
       <c r="D16" t="n">
-        <v>409.102108546611</v>
+        <v>1122.02302701395</v>
       </c>
     </row>
     <row r="17">
@@ -725,13 +725,13 @@
         <v>19</v>
       </c>
       <c r="B17" t="n">
-        <v>340.482920806055</v>
+        <v>578.303885183693</v>
       </c>
       <c r="C17" t="n">
-        <v>376.430300982676</v>
+        <v>1237.9607592873</v>
       </c>
       <c r="D17" t="n">
-        <v>408.579504967266</v>
+        <v>2085.44323252149</v>
       </c>
     </row>
     <row r="18">
@@ -739,13 +739,13 @@
         <v>20</v>
       </c>
       <c r="B18" t="n">
-        <v>335.548973561728</v>
+        <v>590.864942768758</v>
       </c>
       <c r="C18" t="n">
-        <v>343.050697749874</v>
+        <v>1272.54989220209</v>
       </c>
       <c r="D18" t="n">
-        <v>349.807727657616</v>
+        <v>2170.12236157928</v>
       </c>
     </row>
     <row r="19">
@@ -753,13 +753,13 @@
         <v>21</v>
       </c>
       <c r="B19" t="n">
-        <v>330.033598509987</v>
+        <v>493.577524143013</v>
       </c>
       <c r="C19" t="n">
-        <v>337.300559275273</v>
+        <v>1059.56321520753</v>
       </c>
       <c r="D19" t="n">
-        <v>343.957866129146</v>
+        <v>1795.21980408841</v>
       </c>
     </row>
     <row r="20">
@@ -767,13 +767,13 @@
         <v>22</v>
       </c>
       <c r="B20" t="n">
-        <v>1351.62385687935</v>
+        <v>534.590611736301</v>
       </c>
       <c r="C20" t="n">
-        <v>1381.34132184368</v>
+        <v>1152.80951733676</v>
       </c>
       <c r="D20" t="n">
-        <v>1406.47388081024</v>
+        <v>1963.16580589113</v>
       </c>
     </row>
     <row r="21">
@@ -781,13 +781,13 @@
         <v>23</v>
       </c>
       <c r="B21" t="n">
-        <v>1172.94407079287</v>
+        <v>531.280997750162</v>
       </c>
       <c r="C21" t="n">
-        <v>1321.1898698017</v>
+        <v>1152.3254625559</v>
       </c>
       <c r="D21" t="n">
-        <v>1441.29803978367</v>
+        <v>1986.57015058758</v>
       </c>
     </row>
     <row r="22">
@@ -795,13 +795,13 @@
         <v>24</v>
       </c>
       <c r="B22" t="n">
-        <v>1165.5606953455</v>
+        <v>239.644619370009</v>
       </c>
       <c r="C22" t="n">
-        <v>1304.37950189452</v>
+        <v>510.123036698837</v>
       </c>
       <c r="D22" t="n">
-        <v>1403.57875827806</v>
+        <v>837.281858045659</v>
       </c>
     </row>
     <row r="23">
@@ -809,13 +809,13 @@
         <v>25</v>
       </c>
       <c r="B23" t="n">
-        <v>1352.30070046994</v>
+        <v>607.341679905819</v>
       </c>
       <c r="C23" t="n">
-        <v>1517.73216247984</v>
+        <v>1330.58001923712</v>
       </c>
       <c r="D23" t="n">
-        <v>1639.0916630286</v>
+        <v>2346.36221431474</v>
       </c>
     </row>
     <row r="24">
@@ -823,13 +823,13 @@
         <v>26</v>
       </c>
       <c r="B24" t="n">
-        <v>1332.37484402611</v>
+        <v>791.8368710807</v>
       </c>
       <c r="C24" t="n">
-        <v>1510.20737193638</v>
+        <v>1721.9183512302</v>
       </c>
       <c r="D24" t="n">
-        <v>1609.69584176948</v>
+        <v>2994.40605919296</v>
       </c>
     </row>
     <row r="25">
@@ -837,13 +837,13 @@
         <v>27</v>
       </c>
       <c r="B25" t="n">
-        <v>1723.62013328289</v>
+        <v>763.274891259923</v>
       </c>
       <c r="C25" t="n">
-        <v>1926.1966854862</v>
+        <v>1687.12987953095</v>
       </c>
       <c r="D25" t="n">
-        <v>2074.4287686286</v>
+        <v>3062.09456367895</v>
       </c>
     </row>
     <row r="26">
@@ -851,13 +851,13 @@
         <v>28</v>
       </c>
       <c r="B26" t="n">
-        <v>1289.06757792852</v>
+        <v>326.090853480162</v>
       </c>
       <c r="C26" t="n">
-        <v>1452.67045481261</v>
+        <v>718.142013370853</v>
       </c>
       <c r="D26" t="n">
-        <v>1584.73140525012</v>
+        <v>1275.13683189274</v>
       </c>
     </row>
     <row r="27">
@@ -865,13 +865,13 @@
         <v>29</v>
       </c>
       <c r="B27" t="n">
-        <v>1117.56268155531</v>
+        <v>689.335096825906</v>
       </c>
       <c r="C27" t="n">
-        <v>1255.73677650127</v>
+        <v>1552.72205407014</v>
       </c>
       <c r="D27" t="n">
-        <v>1356.28077656945</v>
+        <v>2919.32203012511</v>
       </c>
     </row>
     <row r="28">
@@ -879,13 +879,13 @@
         <v>30</v>
       </c>
       <c r="B28" t="n">
-        <v>2313.09663965234</v>
+        <v>456.130494743278</v>
       </c>
       <c r="C28" t="n">
-        <v>2593.44156538955</v>
+        <v>984.610083240413</v>
       </c>
       <c r="D28" t="n">
-        <v>2775.71596758281</v>
+        <v>1677.20323719768</v>
       </c>
     </row>
     <row r="29">
@@ -893,13 +893,13 @@
         <v>31</v>
       </c>
       <c r="B29" t="n">
-        <v>2302.399023244</v>
+        <v>213.87097117414</v>
       </c>
       <c r="C29" t="n">
-        <v>2578.15196797776</v>
+        <v>471.26786559647</v>
       </c>
       <c r="D29" t="n">
-        <v>2762.8788278928</v>
+        <v>833.45512972036</v>
       </c>
     </row>
     <row r="30">
@@ -907,13 +907,13 @@
         <v>32</v>
       </c>
       <c r="B30" t="n">
-        <v>1996.55913213365</v>
+        <v>238.497095953367</v>
       </c>
       <c r="C30" t="n">
-        <v>2234.13214151111</v>
+        <v>553.818705434482</v>
       </c>
       <c r="D30" t="n">
-        <v>2410.78076077037</v>
+        <v>1077.49142588147</v>
       </c>
     </row>
     <row r="31">
@@ -921,13 +921,13 @@
         <v>33</v>
       </c>
       <c r="B31" t="n">
-        <v>1938.8737279988</v>
+        <v>226.329868472907</v>
       </c>
       <c r="C31" t="n">
-        <v>2168.46180177871</v>
+        <v>501.488853053238</v>
       </c>
       <c r="D31" t="n">
-        <v>2326.64847359856</v>
+        <v>890.41311044662</v>
       </c>
     </row>
     <row r="32">
@@ -935,13 +935,13 @@
         <v>34</v>
       </c>
       <c r="B32" t="n">
-        <v>449.7775787941</v>
+        <v>709.012932871733</v>
       </c>
       <c r="C32" t="n">
-        <v>510.123036698837</v>
+        <v>1510.20737193638</v>
       </c>
       <c r="D32" t="n">
-        <v>544.899767759808</v>
+        <v>2484.50963248083</v>
       </c>
     </row>
     <row r="33">
@@ -949,13 +949,13 @@
         <v>35</v>
       </c>
       <c r="B33" t="n">
-        <v>486.062264217734</v>
+        <v>911.997277344848</v>
       </c>
       <c r="C33" t="n">
-        <v>546.820047244951</v>
+        <v>1926.1966854862</v>
       </c>
       <c r="D33" t="n">
-        <v>587.421578646044</v>
+        <v>3104.19989436216</v>
       </c>
     </row>
     <row r="34">
@@ -963,13 +963,13 @@
         <v>36</v>
       </c>
       <c r="B34" t="n">
-        <v>606.460724426436</v>
+        <v>693.18751475001</v>
       </c>
       <c r="C34" t="n">
-        <v>619.634988584914</v>
+        <v>1452.67045481261</v>
       </c>
       <c r="D34" t="n">
-        <v>632.870814245958</v>
+        <v>2308.79760956415</v>
       </c>
     </row>
     <row r="35">
@@ -977,13 +977,13 @@
         <v>37</v>
       </c>
       <c r="B35" t="n">
-        <v>1270.86361964273</v>
+        <v>595.594886187156</v>
       </c>
       <c r="C35" t="n">
-        <v>1297.18185671345</v>
+        <v>1255.73677650127</v>
       </c>
       <c r="D35" t="n">
-        <v>1326.65740952909</v>
+        <v>2009.08976353488</v>
       </c>
     </row>
     <row r="36">
@@ -991,13 +991,13 @@
         <v>38</v>
       </c>
       <c r="B36" t="n">
-        <v>1025.27803543113</v>
+        <v>1223.78966446432</v>
       </c>
       <c r="C36" t="n">
-        <v>1049.2813938822</v>
+        <v>2593.44156538955</v>
       </c>
       <c r="D36" t="n">
-        <v>1069.61263844682</v>
+        <v>4225.8753962172</v>
       </c>
     </row>
     <row r="37">
@@ -1005,13 +1005,13 @@
         <v>39</v>
       </c>
       <c r="B37" t="n">
-        <v>646.496802459432</v>
+        <v>1217.37489906606</v>
       </c>
       <c r="C37" t="n">
-        <v>660.989565224419</v>
+        <v>2578.15196797776</v>
       </c>
       <c r="D37" t="n">
-        <v>674.264994461587</v>
+        <v>4193.20956348461</v>
       </c>
     </row>
     <row r="38">
@@ -1019,13 +1019,13 @@
         <v>40</v>
       </c>
       <c r="B38" t="n">
-        <v>1211.00362349335</v>
+        <v>1058.74912340918</v>
       </c>
       <c r="C38" t="n">
-        <v>1237.9607592873</v>
+        <v>2234.13214151111</v>
       </c>
       <c r="D38" t="n">
-        <v>1265.15888985961</v>
+        <v>3594.97303905944</v>
       </c>
     </row>
     <row r="39">
@@ -1033,13 +1033,13 @@
         <v>41</v>
       </c>
       <c r="B39" t="n">
-        <v>1243.52730188362</v>
+        <v>1024.67620323366</v>
       </c>
       <c r="C39" t="n">
-        <v>1272.54989220209</v>
+        <v>2168.46180177871</v>
       </c>
       <c r="D39" t="n">
-        <v>1298.39582534197</v>
+        <v>3515.8899927096</v>
       </c>
     </row>
     <row r="40">
@@ -1047,13 +1047,13 @@
         <v>42</v>
       </c>
       <c r="B40" t="n">
-        <v>1037.0011696789</v>
+        <v>719.730508063422</v>
       </c>
       <c r="C40" t="n">
-        <v>1059.56321520753</v>
+        <v>1517.73216247984</v>
       </c>
       <c r="D40" t="n">
-        <v>1081.03664651992</v>
+        <v>2432.22114946767</v>
       </c>
     </row>
     <row r="41">
@@ -1061,13 +1061,13 @@
         <v>43</v>
       </c>
       <c r="B41" t="n">
-        <v>1126.37189079231</v>
+        <v>649.049861490604</v>
       </c>
       <c r="C41" t="n">
-        <v>1152.80951733676</v>
+        <v>1381.34132184368</v>
       </c>
       <c r="D41" t="n">
-        <v>1174.06105980764</v>
+        <v>2286.0169508225</v>
       </c>
     </row>
     <row r="42">
@@ -1075,13 +1075,13 @@
         <v>44</v>
       </c>
       <c r="B42" t="n">
-        <v>1127.59882107495</v>
+        <v>155.40398101238</v>
       </c>
       <c r="C42" t="n">
-        <v>1152.3254625559</v>
+        <v>337.300559275273</v>
       </c>
       <c r="D42" t="n">
-        <v>1175.07133448128</v>
+        <v>575.155334205666</v>
       </c>
     </row>
     <row r="43">
@@ -1089,13 +1089,13 @@
         <v>45</v>
       </c>
       <c r="B43" t="n">
-        <v>461.400243767956</v>
+        <v>158.26305245662</v>
       </c>
       <c r="C43" t="n">
-        <v>471.26786559647</v>
+        <v>343.050697749874</v>
       </c>
       <c r="D43" t="n">
-        <v>481.054325227635</v>
+        <v>584.389259721646</v>
       </c>
     </row>
     <row r="44">
@@ -1103,13 +1103,13 @@
         <v>46</v>
       </c>
       <c r="B44" t="n">
-        <v>961.747245851213</v>
+        <v>629.800609374635</v>
       </c>
       <c r="C44" t="n">
-        <v>984.610083240413</v>
+        <v>1321.1898698017</v>
       </c>
       <c r="D44" t="n">
-        <v>1003.45417026655</v>
+        <v>2088.0135083336</v>
       </c>
     </row>
     <row r="45">
@@ -1117,13 +1117,13 @@
         <v>47</v>
       </c>
       <c r="B45" t="n">
-        <v>1478.52813454046</v>
+        <v>617.492800620922</v>
       </c>
       <c r="C45" t="n">
-        <v>1514.29775225876</v>
+        <v>1304.37950189452</v>
       </c>
       <c r="D45" t="n">
-        <v>1543.82123305468</v>
+        <v>2097.62504852088</v>
       </c>
     </row>
     <row r="46">
@@ -1131,13 +1131,13 @@
         <v>48</v>
       </c>
       <c r="B46" t="n">
-        <v>1472.05652025082</v>
+        <v>247.259643224212</v>
       </c>
       <c r="C46" t="n">
-        <v>1507.10525267037</v>
+        <v>535.616089990898</v>
       </c>
       <c r="D46" t="n">
-        <v>1536.32421387553</v>
+        <v>913.87324489</v>
       </c>
     </row>
     <row r="47">
@@ -1145,13 +1145,13 @@
         <v>49</v>
       </c>
       <c r="B47" t="n">
-        <v>620.199299169799</v>
+        <v>676.090473839985</v>
       </c>
       <c r="C47" t="n">
-        <v>634.104191653497</v>
+        <v>1514.29775225876</v>
       </c>
       <c r="D47" t="n">
-        <v>647.11476624933</v>
+        <v>2789.43877524443</v>
       </c>
     </row>
     <row r="48">
@@ -1159,13 +1159,13 @@
         <v>50</v>
       </c>
       <c r="B48" t="n">
-        <v>523.824023356324</v>
+        <v>672.834070927464</v>
       </c>
       <c r="C48" t="n">
-        <v>535.616089990898</v>
+        <v>1507.10525267037</v>
       </c>
       <c r="D48" t="n">
-        <v>546.16131553897</v>
+        <v>2777.65141680695</v>
       </c>
     </row>
   </sheetData>

--- a/median-pCO2.xlsx
+++ b/median-pCO2.xlsx
@@ -20,7 +20,7 @@
     <t xml:space="preserve">lwr_ci</t>
   </si>
   <si>
-    <t xml:space="preserve">mean_pCO2</t>
+    <t xml:space="preserve">median_pCO2</t>
   </si>
   <si>
     <t xml:space="preserve">upr_ci</t>
@@ -515,13 +515,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>418.654330938922</v>
+        <v>354.312659315757</v>
       </c>
       <c r="C2" t="n">
         <v>978.439039936561</v>
       </c>
       <c r="D2" t="n">
-        <v>1965.93572038396</v>
+        <v>1817.7522476787</v>
       </c>
     </row>
     <row r="3">
@@ -529,13 +529,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>433.328583997645</v>
+        <v>374.984834279778</v>
       </c>
       <c r="C3" t="n">
         <v>1005.76886292809</v>
       </c>
       <c r="D3" t="n">
-        <v>1990.94409467863</v>
+        <v>1851.59427516284</v>
       </c>
     </row>
     <row r="4">
@@ -543,13 +543,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>399.93298639518</v>
+        <v>353.892957746479</v>
       </c>
       <c r="C4" t="n">
         <v>914.327527352297</v>
       </c>
       <c r="D4" t="n">
-        <v>1743.84684599406</v>
+        <v>1630.94332552693</v>
       </c>
     </row>
     <row r="5">
@@ -557,13 +557,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>241.574177851094</v>
+        <v>216.137688666002</v>
       </c>
       <c r="C5" t="n">
         <v>555.341696303482</v>
       </c>
       <c r="D5" t="n">
-        <v>1054.03882998917</v>
+        <v>995.22224953073</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="n">
-        <v>161.785270430932</v>
+        <v>135.378030604928</v>
       </c>
       <c r="C6" t="n">
         <v>388.551883228406</v>
       </c>
       <c r="D6" t="n">
-        <v>788.415755997504</v>
+        <v>731.123832624966</v>
       </c>
     </row>
     <row r="7">
@@ -585,13 +585,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="n">
-        <v>243.766570654361</v>
+        <v>206.093685390115</v>
       </c>
       <c r="C7" t="n">
         <v>575.173533368636</v>
       </c>
       <c r="D7" t="n">
-        <v>1153.70440069318</v>
+        <v>1067.85681923597</v>
       </c>
     </row>
     <row r="8">
@@ -599,13 +599,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="n">
-        <v>638.839645586087</v>
+        <v>529.340625566246</v>
       </c>
       <c r="C8" t="n">
         <v>1496.51792386254</v>
       </c>
       <c r="D8" t="n">
-        <v>3039.39573066251</v>
+        <v>2782.32020958726</v>
       </c>
     </row>
     <row r="9">
@@ -613,13 +613,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="n">
-        <v>177.626658639482</v>
+        <v>156.569767658106</v>
       </c>
       <c r="C9" t="n">
         <v>375.767442379454</v>
       </c>
       <c r="D9" t="n">
-        <v>647.677126566565</v>
+        <v>604.498651462128</v>
       </c>
     </row>
     <row r="10">
@@ -627,13 +627,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="n">
-        <v>177.146209571236</v>
+        <v>156.845958742782</v>
       </c>
       <c r="C10" t="n">
         <v>376.430300982676</v>
       </c>
       <c r="D10" t="n">
-        <v>641.759403647139</v>
+        <v>598.975443403997</v>
       </c>
     </row>
     <row r="11">
@@ -641,13 +641,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="n">
-        <v>255.804836224378</v>
+        <v>229.669238439386</v>
       </c>
       <c r="C11" t="n">
         <v>546.820047244951</v>
       </c>
       <c r="D11" t="n">
-        <v>909.252326678038</v>
+        <v>851.646775882724</v>
       </c>
     </row>
     <row r="12">
@@ -655,13 +655,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="n">
-        <v>285.212131999635</v>
+        <v>260.363550388584</v>
       </c>
       <c r="C12" t="n">
         <v>619.634988584914</v>
       </c>
       <c r="D12" t="n">
-        <v>1067.77783770637</v>
+        <v>1020.36513260567</v>
       </c>
     </row>
     <row r="13">
@@ -669,13 +669,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="n">
-        <v>489.704486692204</v>
+        <v>449.507402408847</v>
       </c>
       <c r="C13" t="n">
         <v>1049.2813938822</v>
       </c>
       <c r="D13" t="n">
-        <v>1764.68007077721</v>
+        <v>1692.68435682913</v>
       </c>
     </row>
     <row r="14">
@@ -683,13 +683,13 @@
         <v>16</v>
       </c>
       <c r="B14" t="n">
-        <v>306.020730164355</v>
+        <v>280.030289857542</v>
       </c>
       <c r="C14" t="n">
         <v>660.989565224419</v>
       </c>
       <c r="D14" t="n">
-        <v>1124.39770310332</v>
+        <v>1078.96427461686</v>
       </c>
     </row>
     <row r="15">
@@ -697,13 +697,13 @@
         <v>17</v>
       </c>
       <c r="B15" t="n">
-        <v>610.034757176734</v>
+        <v>557.211232419769</v>
       </c>
       <c r="C15" t="n">
         <v>1297.18185671345</v>
       </c>
       <c r="D15" t="n">
-        <v>2158.70528520742</v>
+        <v>2068.78947817386</v>
       </c>
     </row>
     <row r="16">
@@ -711,13 +711,13 @@
         <v>18</v>
       </c>
       <c r="B16" t="n">
-        <v>287.782548587827</v>
+        <v>249.89123999692</v>
       </c>
       <c r="C16" t="n">
         <v>634.104191653497</v>
       </c>
       <c r="D16" t="n">
-        <v>1122.02302701395</v>
+        <v>1058.60754177337</v>
       </c>
     </row>
     <row r="17">
@@ -725,13 +725,13 @@
         <v>19</v>
       </c>
       <c r="B17" t="n">
-        <v>578.303885183693</v>
+        <v>533.363431057008</v>
       </c>
       <c r="C17" t="n">
         <v>1237.9607592873</v>
       </c>
       <c r="D17" t="n">
-        <v>2085.44323252149</v>
+        <v>1999.49913475042</v>
       </c>
     </row>
     <row r="18">
@@ -739,13 +739,13 @@
         <v>20</v>
       </c>
       <c r="B18" t="n">
-        <v>590.864942768758</v>
+        <v>538.942825535404</v>
       </c>
       <c r="C18" t="n">
         <v>1272.54989220209</v>
       </c>
       <c r="D18" t="n">
-        <v>2170.12236157928</v>
+        <v>2072.19980004882</v>
       </c>
     </row>
     <row r="19">
@@ -753,13 +753,13 @@
         <v>21</v>
       </c>
       <c r="B19" t="n">
-        <v>493.577524143013</v>
+        <v>454.347461223283</v>
       </c>
       <c r="C19" t="n">
         <v>1059.56321520753</v>
       </c>
       <c r="D19" t="n">
-        <v>1795.21980408841</v>
+        <v>1720.34194977037</v>
       </c>
     </row>
     <row r="20">
@@ -767,13 +767,13 @@
         <v>22</v>
       </c>
       <c r="B20" t="n">
-        <v>534.590611736301</v>
+        <v>469.525406671454</v>
       </c>
       <c r="C20" t="n">
         <v>1152.80951733676</v>
       </c>
       <c r="D20" t="n">
-        <v>1963.16580589113</v>
+        <v>1854.2900208017</v>
       </c>
     </row>
     <row r="21">
@@ -781,13 +781,13 @@
         <v>23</v>
       </c>
       <c r="B21" t="n">
-        <v>531.280997750162</v>
+        <v>487.296760859198</v>
       </c>
       <c r="C21" t="n">
         <v>1152.3254625559</v>
       </c>
       <c r="D21" t="n">
-        <v>1986.57015058758</v>
+        <v>1895.25200954586</v>
       </c>
     </row>
     <row r="22">
@@ -795,13 +795,13 @@
         <v>24</v>
       </c>
       <c r="B22" t="n">
-        <v>239.644619370009</v>
+        <v>216.81281391383</v>
       </c>
       <c r="C22" t="n">
         <v>510.123036698837</v>
       </c>
       <c r="D22" t="n">
-        <v>837.281858045659</v>
+        <v>791.936239372724</v>
       </c>
     </row>
     <row r="23">
@@ -809,13 +809,13 @@
         <v>25</v>
       </c>
       <c r="B23" t="n">
-        <v>607.341679905819</v>
+        <v>517.766977277684</v>
       </c>
       <c r="C23" t="n">
         <v>1330.58001923712</v>
       </c>
       <c r="D23" t="n">
-        <v>2346.36221431474</v>
+        <v>2191.995183028</v>
       </c>
     </row>
     <row r="24">
@@ -823,13 +823,13 @@
         <v>26</v>
       </c>
       <c r="B24" t="n">
-        <v>791.8368710807</v>
+        <v>715.061720362547</v>
       </c>
       <c r="C24" t="n">
         <v>1721.9183512302</v>
       </c>
       <c r="D24" t="n">
-        <v>2994.40605919296</v>
+        <v>2844.44689668828</v>
       </c>
     </row>
     <row r="25">
@@ -837,13 +837,13 @@
         <v>27</v>
       </c>
       <c r="B25" t="n">
-        <v>763.274891259923</v>
+        <v>667.206057120518</v>
       </c>
       <c r="C25" t="n">
         <v>1687.12987953095</v>
       </c>
       <c r="D25" t="n">
-        <v>3062.09456367895</v>
+        <v>2871.28722931183</v>
       </c>
     </row>
     <row r="26">
@@ -851,13 +851,13 @@
         <v>28</v>
       </c>
       <c r="B26" t="n">
-        <v>326.090853480162</v>
+        <v>289.766781433583</v>
       </c>
       <c r="C26" t="n">
         <v>718.142013370853</v>
       </c>
       <c r="D26" t="n">
-        <v>1275.13683189274</v>
+        <v>1207.68538137971</v>
       </c>
     </row>
     <row r="27">
@@ -865,13 +865,13 @@
         <v>29</v>
       </c>
       <c r="B27" t="n">
-        <v>689.335096825906</v>
+        <v>593.088632108031</v>
       </c>
       <c r="C27" t="n">
         <v>1552.72205407014</v>
       </c>
       <c r="D27" t="n">
-        <v>2919.32203012511</v>
+        <v>2719.41827785334</v>
       </c>
     </row>
     <row r="28">
@@ -879,13 +879,13 @@
         <v>30</v>
       </c>
       <c r="B28" t="n">
-        <v>456.130494743278</v>
+        <v>412.096366237632</v>
       </c>
       <c r="C28" t="n">
         <v>984.610083240413</v>
       </c>
       <c r="D28" t="n">
-        <v>1677.20323719768</v>
+        <v>1597.50328149219</v>
       </c>
     </row>
     <row r="29">
@@ -893,13 +893,13 @@
         <v>31</v>
       </c>
       <c r="B29" t="n">
-        <v>213.87097117414</v>
+        <v>191.279079447917</v>
       </c>
       <c r="C29" t="n">
         <v>471.26786559647</v>
       </c>
       <c r="D29" t="n">
-        <v>833.45512972036</v>
+        <v>792.971626044365</v>
       </c>
     </row>
     <row r="30">
@@ -907,13 +907,13 @@
         <v>32</v>
       </c>
       <c r="B30" t="n">
-        <v>238.497095953367</v>
+        <v>206.221650425231</v>
       </c>
       <c r="C30" t="n">
         <v>553.818705434482</v>
       </c>
       <c r="D30" t="n">
-        <v>1077.49142588147</v>
+        <v>1005.01159361935</v>
       </c>
     </row>
     <row r="31">
@@ -921,13 +921,13 @@
         <v>33</v>
       </c>
       <c r="B31" t="n">
-        <v>226.329868472907</v>
+        <v>203.144630664703</v>
       </c>
       <c r="C31" t="n">
         <v>501.488853053238</v>
       </c>
       <c r="D31" t="n">
-        <v>890.41311044662</v>
+        <v>847.382655260253</v>
       </c>
     </row>
     <row r="32">
@@ -935,13 +935,13 @@
         <v>34</v>
       </c>
       <c r="B32" t="n">
-        <v>709.012932871733</v>
+        <v>645.892587233709</v>
       </c>
       <c r="C32" t="n">
         <v>1510.20737193638</v>
       </c>
       <c r="D32" t="n">
-        <v>2484.50963248083</v>
+        <v>2338.47748702646</v>
       </c>
     </row>
     <row r="33">
@@ -949,13 +949,13 @@
         <v>35</v>
       </c>
       <c r="B33" t="n">
-        <v>911.997277344848</v>
+        <v>841.705442971699</v>
       </c>
       <c r="C33" t="n">
         <v>1926.1966854862</v>
       </c>
       <c r="D33" t="n">
-        <v>3104.19989436216</v>
+        <v>2970.18441440874</v>
       </c>
     </row>
     <row r="34">
@@ -963,13 +963,13 @@
         <v>36</v>
       </c>
       <c r="B34" t="n">
-        <v>693.18751475001</v>
+        <v>660.30475218755</v>
       </c>
       <c r="C34" t="n">
         <v>1452.67045481261</v>
       </c>
       <c r="D34" t="n">
-        <v>2308.79760956415</v>
+        <v>2251.361181084</v>
       </c>
     </row>
     <row r="35">
@@ -977,13 +977,13 @@
         <v>37</v>
       </c>
       <c r="B35" t="n">
-        <v>595.594886187156</v>
+        <v>550.505207716531</v>
       </c>
       <c r="C35" t="n">
         <v>1255.73677650127</v>
       </c>
       <c r="D35" t="n">
-        <v>2009.08976353488</v>
+        <v>1934.18646323408</v>
       </c>
     </row>
     <row r="36">
@@ -991,13 +991,13 @@
         <v>38</v>
       </c>
       <c r="B36" t="n">
-        <v>1223.78966446432</v>
+        <v>1124.85721896266</v>
       </c>
       <c r="C36" t="n">
         <v>2593.44156538955</v>
       </c>
       <c r="D36" t="n">
-        <v>4225.8753962172</v>
+        <v>4006.65169540156</v>
       </c>
     </row>
     <row r="37">
@@ -1005,13 +1005,13 @@
         <v>39</v>
       </c>
       <c r="B37" t="n">
-        <v>1217.37489906606</v>
+        <v>1119.98811416649</v>
       </c>
       <c r="C37" t="n">
         <v>2578.15196797776</v>
       </c>
       <c r="D37" t="n">
-        <v>4193.20956348461</v>
+        <v>3981.65866647652</v>
       </c>
     </row>
     <row r="38">
@@ -1019,13 +1019,13 @@
         <v>40</v>
       </c>
       <c r="B38" t="n">
-        <v>1058.74912340918</v>
+        <v>978.755625748932</v>
       </c>
       <c r="C38" t="n">
         <v>2234.13214151111</v>
       </c>
       <c r="D38" t="n">
-        <v>3594.97303905944</v>
+        <v>3443.67624577205</v>
       </c>
     </row>
     <row r="39">
@@ -1033,13 +1033,13 @@
         <v>41</v>
       </c>
       <c r="B39" t="n">
-        <v>1024.67620323366</v>
+        <v>943.291487066612</v>
       </c>
       <c r="C39" t="n">
         <v>2168.46180177871</v>
       </c>
       <c r="D39" t="n">
-        <v>3515.8899927096</v>
+        <v>3347.36304645877</v>
       </c>
     </row>
     <row r="40">
@@ -1047,13 +1047,13 @@
         <v>42</v>
       </c>
       <c r="B40" t="n">
-        <v>719.730508063422</v>
+        <v>665.386291658186</v>
       </c>
       <c r="C40" t="n">
         <v>1517.73216247984</v>
       </c>
       <c r="D40" t="n">
-        <v>2432.22114946767</v>
+        <v>2338.17295116595</v>
       </c>
     </row>
     <row r="41">
@@ -1061,13 +1061,13 @@
         <v>43</v>
       </c>
       <c r="B41" t="n">
-        <v>649.049861490604</v>
+        <v>610.166617640876</v>
       </c>
       <c r="C41" t="n">
         <v>1381.34132184368</v>
       </c>
       <c r="D41" t="n">
-        <v>2286.0169508225</v>
+        <v>2205.05439890485</v>
       </c>
     </row>
     <row r="42">
@@ -1075,13 +1075,13 @@
         <v>44</v>
       </c>
       <c r="B42" t="n">
-        <v>155.40398101238</v>
+        <v>141.581050401698</v>
       </c>
       <c r="C42" t="n">
         <v>337.300559275273</v>
       </c>
       <c r="D42" t="n">
-        <v>575.155334205666</v>
+        <v>552.858823354043</v>
       </c>
     </row>
     <row r="43">
@@ -1089,13 +1089,13 @@
         <v>45</v>
       </c>
       <c r="B43" t="n">
-        <v>158.26305245662</v>
+        <v>144.189712427675</v>
       </c>
       <c r="C43" t="n">
         <v>343.050697749874</v>
       </c>
       <c r="D43" t="n">
-        <v>584.389259721646</v>
+        <v>561.964627310409</v>
       </c>
     </row>
     <row r="44">
@@ -1103,13 +1103,13 @@
         <v>46</v>
       </c>
       <c r="B44" t="n">
-        <v>629.800609374635</v>
+        <v>600.540849909865</v>
       </c>
       <c r="C44" t="n">
         <v>1321.1898698017</v>
       </c>
       <c r="D44" t="n">
-        <v>2088.0135083336</v>
+        <v>2037.62729743552</v>
       </c>
     </row>
     <row r="45">
@@ -1117,13 +1117,13 @@
         <v>47</v>
       </c>
       <c r="B45" t="n">
-        <v>617.492800620922</v>
+        <v>569.196264007643</v>
       </c>
       <c r="C45" t="n">
         <v>1304.37950189452</v>
       </c>
       <c r="D45" t="n">
-        <v>2097.62504852088</v>
+        <v>2011.0768337519</v>
       </c>
     </row>
     <row r="46">
@@ -1131,13 +1131,13 @@
         <v>48</v>
       </c>
       <c r="B46" t="n">
-        <v>247.259643224212</v>
+        <v>221.115902897825</v>
       </c>
       <c r="C46" t="n">
         <v>535.616089990898</v>
       </c>
       <c r="D46" t="n">
-        <v>913.87324489</v>
+        <v>869.794315577981</v>
       </c>
     </row>
     <row r="47">
@@ -1145,13 +1145,13 @@
         <v>49</v>
       </c>
       <c r="B47" t="n">
-        <v>676.090473839985</v>
+        <v>569.291456582512</v>
       </c>
       <c r="C47" t="n">
         <v>1514.29775225876</v>
       </c>
       <c r="D47" t="n">
-        <v>2789.43877524443</v>
+        <v>2591.78985041937</v>
       </c>
     </row>
     <row r="48">
@@ -1159,13 +1159,13 @@
         <v>50</v>
       </c>
       <c r="B48" t="n">
-        <v>672.834070927464</v>
+        <v>566.526894936938</v>
       </c>
       <c r="C48" t="n">
         <v>1507.10525267037</v>
       </c>
       <c r="D48" t="n">
-        <v>2777.65141680695</v>
+        <v>2579.80000055119</v>
       </c>
     </row>
   </sheetData>
